--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Previously saved chart template titles</t>
   </si>
   <si>
+    <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+  </si>
+  <si>
+    <t>.DS_Store</t>
+  </si>
+  <si>
     <t>China M2 proxies?.xlsx</t>
   </si>
   <si>
+    <t>US financial conditions, employment &amp; equities.xlsx</t>
+  </si>
+  <si>
     <t>Financial conditions &amp; employment, US.xlsx</t>
   </si>
   <si>
     <t>US and Global Monetary Aggregates.xlsx</t>
+  </si>
+  <si>
+    <t>US Equity Indices.xlsx</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +421,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Previously saved chart template titles</t>
-  </si>
-  <si>
-    <t>US Gross Domestic Income and Equity Indices.xlsx</t>
-  </si>
-  <si>
-    <t>.DS_Store</t>
-  </si>
-  <si>
-    <t>China M2 proxies?.xlsx</t>
-  </si>
-  <si>
-    <t>US financial conditions, employment &amp; equities.xlsx</t>
-  </si>
-  <si>
-    <t>Financial conditions &amp; employment, US.xlsx</t>
-  </si>
-  <si>
-    <t>US and Global Monetary Aggregates.xlsx</t>
-  </si>
-  <si>
-    <t>US Equity Indices.xlsx</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,54 +420,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Previously saved chart template titles</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>.DS_Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>China M2 proxies?.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>US financial conditions, employment &amp; equities.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Financial conditions &amp; employment, US.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>U.S GDP and GDI.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>US and Global Monetary Aggregates.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>US Equity Indices.xlsx</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Previously saved chart template titles</t>
+  </si>
+  <si>
+    <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+  </si>
+  <si>
+    <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+  </si>
+  <si>
+    <t>.DS_Store</t>
+  </si>
+  <si>
+    <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+  </si>
+  <si>
+    <t>China M2 proxies?.xlsx</t>
+  </si>
+  <si>
+    <t>US financial conditions, employment &amp; equities.xlsx</t>
+  </si>
+  <si>
+    <t>Financial conditions &amp; employment, US.xlsx</t>
+  </si>
+  <si>
+    <t>U.S GDP and GDI.xlsx</t>
+  </si>
+  <si>
+    <t>US and Global Monetary Aggregates.xlsx</t>
+  </si>
+  <si>
+    <t>US Equity Indices.xlsx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,97 +403,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Previously saved chart template titles</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>.DS_Store</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>China M2 proxies?.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>US financial conditions, employment &amp; equities.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Financial conditions &amp; employment, US.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>U.S GDP and GDI.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>US and Global Monetary Aggregates.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>US Equity Indices.xlsx</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Previously saved chart template titles</t>
   </si>
@@ -40,7 +40,25 @@
     <t>Financial conditions &amp; employment, US.xlsx</t>
   </si>
   <si>
+    <t>Bank credit and M2 U.S.xlsx</t>
+  </si>
+  <si>
+    <t>Total construction spending in the U.S, nominal and real.xlsx</t>
+  </si>
+  <si>
+    <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+  </si>
+  <si>
     <t>U.S GDP and GDI.xlsx</t>
+  </si>
+  <si>
+    <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+  </si>
+  <si>
+    <t>Personal savings U.S (BEA).xlsx</t>
+  </si>
+  <si>
+    <t>Real Incomes U.S (BEA).xlsx</t>
   </si>
   <si>
     <t>US and Global Monetary Aggregates.xlsx</t>
@@ -404,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,6 +483,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Previously saved chart template titles</t>
-  </si>
-  <si>
-    <t>US Gross Domestic Income and Equity Indices.xlsx</t>
-  </si>
-  <si>
-    <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
-  </si>
-  <si>
-    <t>.DS_Store</t>
-  </si>
-  <si>
-    <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
-  </si>
-  <si>
-    <t>China M2 proxies?.xlsx</t>
-  </si>
-  <si>
-    <t>US financial conditions, employment &amp; equities.xlsx</t>
-  </si>
-  <si>
-    <t>Financial conditions &amp; employment, US.xlsx</t>
-  </si>
-  <si>
-    <t>Bank credit and M2 U.S.xlsx</t>
-  </si>
-  <si>
-    <t>Total construction spending in the U.S, nominal and real.xlsx</t>
-  </si>
-  <si>
-    <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
-  </si>
-  <si>
-    <t>U.S GDP and GDI.xlsx</t>
-  </si>
-  <si>
-    <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
-  </si>
-  <si>
-    <t>Personal savings U.S (BEA).xlsx</t>
-  </si>
-  <si>
-    <t>Real Incomes U.S (BEA).xlsx</t>
-  </si>
-  <si>
-    <t>US and Global Monetary Aggregates.xlsx</t>
-  </si>
-  <si>
-    <t>US Equity Indices.xlsx</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,99 +420,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Previously saved chart template titles</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>'China M2 proxies?'.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>.DS_Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other deposit liabilities (ODL) shows where M2 is going.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> China domestic credit &amp; M2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>US financial conditions, employment &amp; equities.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Financial conditions &amp; employment, US.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bank credit and M2 U.S.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bank credit growth, inflation and M2 U.S.A.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total construction spending in the U.S, nominal and real.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>U.S GDP and GDI.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Personal savings U.S (BEA).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Real Incomes U.S (BEA).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>US and Global Monetary Aggregates.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>US Equity Indices.xlsx</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,133 +443,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'China M2 proxies?'.xlsx</t>
+          <t>Bank credit and M2 U.S.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+          <t>U.S GDP and GDI.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>US financial conditions, employment &amp; equities.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+          <t>Real Incomes U.S (BEA).xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Other deposit liabilities (ODL) shows where M2 is going.xlsx</t>
+          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China domestic credit &amp; M2.xlsx</t>
+          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>US financial conditions, employment &amp; equities.xlsx</t>
+          <t>US Equity Indices.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Financial conditions &amp; employment, US.xlsx</t>
+          <t>US and Global Monetary Aggregates.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bank credit and M2 U.S.xlsx</t>
+          <t>Financial conditions &amp; employment, US.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bank credit growth, inflation and M2 U.S.A.xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Total construction spending in the U.S, nominal and real.xlsx</t>
+          <t>Personal savings U.S (BEA).xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+          <t>Monetary Aggregates &amp; Inflation, USA.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U.S GDP and GDI.xlsx</t>
+          <t>Total construction spending in the U.S, nominal and real.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Personal savings U.S (BEA).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Real Incomes U.S (BEA).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>US and Global Monetary Aggregates.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>US Equity Indices.xlsx</t>
+          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
         </is>
       </c>
     </row>

--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -443,91 +443,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+          <t>Financial conditions &amp; employment, US.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bank credit and M2 U.S.xlsx</t>
+          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U.S GDP and GDI.xlsx</t>
+          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>US financial conditions, employment &amp; equities.xlsx</t>
+          <t>Personal savings U.S (BEA).xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Real Incomes U.S (BEA).xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+          <t>U.S GDP and GDI.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+          <t>Real Incomes U.S (BEA).xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>US Equity Indices.xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>US and Global Monetary Aggregates.xlsx</t>
+          <t>US financial conditions, employment &amp; equities.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Financial conditions &amp; employment, US.xlsx</t>
+          <t>US Equity Indices.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Personal savings U.S (BEA).xlsx</t>
+          <t>US and Global Monetary Aggregates.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Monetary Aggregates &amp; Inflation, USA.xlsx</t>
+          <t>Bank credit and M2 U.S.xlsx</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+          <t>Monetary Aggregates &amp; Inflation, USA.xlsx</t>
         </is>
       </c>
     </row>

--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -443,91 +443,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Financial conditions &amp; employment, US.xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+          <t>Bank credit and M2 U.S.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+          <t>U.S GDP and GDI.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Personal savings U.S (BEA).xlsx</t>
+          <t>US financial conditions, employment &amp; equities.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+          <t>Real Incomes U.S (BEA).xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U.S GDP and GDI.xlsx</t>
+          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Real Incomes U.S (BEA).xlsx</t>
+          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+          <t>US Equity Indices.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>US financial conditions, employment &amp; equities.xlsx</t>
+          <t>US and Global Monetary Aggregates.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>US Equity Indices.xlsx</t>
+          <t>Financial conditions &amp; employment, US.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>US and Global Monetary Aggregates.xlsx</t>
+          <t>Personal savings U.S (BEA).xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bank credit and M2 U.S.xlsx</t>
+          <t>Monetary Aggregates &amp; Inflation, USA.xlsx</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Monetary Aggregates &amp; Inflation, USA.xlsx</t>
+          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
         </is>
       </c>
     </row>

--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,105 +443,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bank credit and M2 U.S.xlsx</t>
+          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U.S GDP and GDI.xlsx</t>
+          <t>.DS_Store</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>US financial conditions, employment &amp; equities.xlsx</t>
+          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Real Incomes U.S (BEA).xlsx</t>
+          <t>Other deposit liabilities (ODL) shows where M2 is going.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+          <t xml:space="preserve"> China domestic credit &amp; M2.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+          <t>US financial conditions, employment &amp; equities.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>US Equity Indices.xlsx</t>
+          <t>GDP vs GDI.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>US and Global Monetary Aggregates.xlsx</t>
+          <t>Financial conditions &amp; employment, US.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Financial conditions &amp; employment, US.xlsx</t>
+          <t>Bank credit and M2 U.S.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+          <t>Bank credit growth, inflation and M2 U.S.A.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Personal savings U.S (BEA).xlsx</t>
+          <t>Total construction spending in the U.S, nominal and real.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Monetary Aggregates &amp; Inflation, USA.xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total construction spending in the U.S, nominal and real.xlsx</t>
+          <t>Gross domestic product (GDP) vs gross domestic income (GDI), yearly growth..xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+          <t>U.S GDP and GDI.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Personal savings U.S (BEA).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Real Incomes U.S (BEA).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>US and Global Monetary Aggregates.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>US Equity Indices.xlsx</t>
         </is>
       </c>
     </row>

--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -1,37 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Previously saved chart template titles</t>
+  </si>
+  <si>
+    <t>US Gross Domestic Income and Equity Indices.xlsx</t>
+  </si>
+  <si>
+    <t>M2 &amp; CPI Trends.xlsx</t>
+  </si>
+  <si>
+    <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
+  </si>
+  <si>
+    <t>.DS_Store</t>
+  </si>
+  <si>
+    <t>China domestic credit &amp; M2.xlsx</t>
+  </si>
+  <si>
+    <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
+  </si>
+  <si>
+    <t>Other deposit liabilities (ODL) shows where M2 is going.xlsx</t>
+  </si>
+  <si>
+    <t>US financial conditions, employment &amp; equities.xlsx</t>
+  </si>
+  <si>
+    <t>GDP vs GDI.xlsx</t>
+  </si>
+  <si>
+    <t>Financial conditions &amp; employment, US.xlsx</t>
+  </si>
+  <si>
+    <t>Bank credit and M2 U.S.xlsx</t>
+  </si>
+  <si>
+    <t>Bank credit growth, inflation and M2 U.S.A.xlsx</t>
+  </si>
+  <si>
+    <t>Total construction spending in the U.S, nominal and real.xlsx</t>
+  </si>
+  <si>
+    <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP) vs gross domestic income (GDI), yearly growth..xlsx</t>
+  </si>
+  <si>
+    <t>U.S GDP and GDI.xlsx</t>
+  </si>
+  <si>
+    <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
+  </si>
+  <si>
+    <t>Personal savings U.S (BEA).xlsx</t>
+  </si>
+  <si>
+    <t>Real Incomes U.S (BEA).xlsx</t>
+  </si>
+  <si>
+    <t>US and Global Monetary Aggregates.xlsx</t>
+  </si>
+  <si>
+    <t>US Equity Indices.xlsx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +120,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,167 +436,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Previously saved chart template titles</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>US Gross Domestic Income and Equity Indices.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>.DS_Store</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other deposit liabilities (ODL) shows where M2 is going.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> China domestic credit &amp; M2.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>US financial conditions, employment &amp; equities.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GDP vs GDI.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Financial conditions &amp; employment, US.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bank credit and M2 U.S.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bank credit growth, inflation and M2 U.S.A.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Total construction spending in the U.S, nominal and real.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gross domestic product (GDP) vs gross domestic income (GDI), yearly growth..xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>U.S GDP and GDI.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Personal savings U.S (BEA).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Real Incomes U.S (BEA).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>US and Global Monetary Aggregates.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>US Equity Indices.xlsx</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -28,9 +28,6 @@
     <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
   </si>
   <si>
-    <t>.DS_Store</t>
-  </si>
-  <si>
     <t>China domestic credit &amp; M2.xlsx</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>GDP vs GDI.xlsx</t>
+  </si>
+  <si>
+    <t>S &amp; P 5000 in real terms.xlsx</t>
   </si>
   <si>
     <t>Financial conditions &amp; employment, US.xlsx</t>

--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Previously saved chart template titles</t>
-  </si>
-  <si>
-    <t>US Gross Domestic Income and Equity Indices.xlsx</t>
-  </si>
-  <si>
-    <t>M2 &amp; CPI Trends.xlsx</t>
-  </si>
-  <si>
-    <t>Bitty, SPX &amp; GM2 fitted trends.xlsx</t>
-  </si>
-  <si>
-    <t>China domestic credit &amp; M2.xlsx</t>
-  </si>
-  <si>
-    <t>Monetary Expansion and Risk Asset Activity.xlsx</t>
-  </si>
-  <si>
-    <t>Other deposit liabilities (ODL) shows where M2 is going.xlsx</t>
-  </si>
-  <si>
-    <t>US financial conditions, employment &amp; equities.xlsx</t>
-  </si>
-  <si>
-    <t>GDP vs GDI.xlsx</t>
-  </si>
-  <si>
-    <t>S &amp; P 5000 in real terms.xlsx</t>
-  </si>
-  <si>
-    <t>Financial conditions &amp; employment, US.xlsx</t>
-  </si>
-  <si>
-    <t>Bank credit and M2 U.S.xlsx</t>
-  </si>
-  <si>
-    <t>Bank credit growth, inflation and M2 U.S.A.xlsx</t>
-  </si>
-  <si>
-    <t>Total construction spending in the U.S, nominal and real.xlsx</t>
-  </si>
-  <si>
-    <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
-  </si>
-  <si>
-    <t>Gross domestic product (GDP) vs gross domestic income (GDI), yearly growth..xlsx</t>
-  </si>
-  <si>
-    <t>U.S GDP and GDI.xlsx</t>
-  </si>
-  <si>
-    <t>Bitcoin price change is fueled by global monetary growth (with forecast).xlsx</t>
-  </si>
-  <si>
-    <t>Personal savings U.S (BEA).xlsx</t>
-  </si>
-  <si>
-    <t>Real Incomes U.S (BEA).xlsx</t>
-  </si>
-  <si>
-    <t>US and Global Monetary Aggregates.xlsx</t>
-  </si>
-  <si>
-    <t>US Equity Indices.xlsx</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,124 +420,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Previously saved chart template titles</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GDP vs GDI.xlsx</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Macro_Chartist/TemplateList.xlsx
+++ b/Macro_Chartist/TemplateList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+          <t>Bitcoin price change is fueled by global monetary growth (with extrapolation).xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Bitcoin price change is fueled by global monetary growth.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>GDP vs GDI.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Other deposit liabilities (ODL) shows where US M2 is heading.xlsx</t>
         </is>
       </c>
     </row>
